--- a/文書管理フォルダ/外部設計用フォルダ/外部設計書類/ファイル構成一覧.xlsx
+++ b/文書管理フォルダ/外部設計用フォルダ/外部設計書類/ファイル構成一覧.xlsx
@@ -5,19 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-1\文書管理フォルダ\外部設計用フォルダ\外部設計書類\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB215CC9-5FCB-4064-9172-D7F45DF53269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B6321C-80B3-4407-ADFA-C13224C2215D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="60" windowWidth="14964" windowHeight="11220" activeTab="1" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="360" yWindow="264" windowWidth="17436" windowHeight="11292" activeTab="1" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="162">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -1186,48 +1185,138 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>新川/高橋/中村</t>
+    <t>高橋（おそらく無し）</t>
+    <rPh sb="0" eb="2">
+      <t>タカハシ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>福田（投稿）/中村（編集）</t>
+    <rPh sb="0" eb="2">
+      <t>フクダ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ナカムラ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>深田（並び替え：新着）/中村（返信表示,編集,削除,文字検索）</t>
+    <rPh sb="0" eb="2">
+      <t>フカダ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シンチャク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ナカムラ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘンシン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>深田（各並び替え,全一覧表示）/福田（投稿：検閲込み）
+/中村（投稿表示,リアクション,編集,削除,文字検索）</t>
+    <rPh sb="0" eb="2">
+      <t>フカダ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>フクダ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ケンエツ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ナカムラ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新川（パスワード）/三田（ログイン）/
+高橋（ドクロカウント,各並び替え,全一覧表示,更新）</t>
     <rPh sb="0" eb="2">
       <t>ニイカワ</t>
     </rPh>
-    <rPh sb="3" eb="5">
-      <t>タカハシ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ナカムラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>深田/中村</t>
-    <rPh sb="0" eb="2">
-      <t>フカダ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ナカムラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>深田/福田/中村</t>
-    <rPh sb="0" eb="2">
-      <t>フカダ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>フクダ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ナカムラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>福田/中村</t>
-    <rPh sb="0" eb="2">
-      <t>フクダ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ナカムラ</t>
+    <rPh sb="10" eb="12">
+      <t>ミタ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>カク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1236,7 +1325,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1251,6 +1340,12 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1296,7 +1391,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1308,6 +1403,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2004,8 +2105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E877898-1ADF-4B1F-AF3E-F0061165EDDE}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="D9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2014,7 +2115,7 @@
     <col min="3" max="3" width="28.19921875" customWidth="1"/>
     <col min="4" max="4" width="37.69921875" customWidth="1"/>
     <col min="5" max="5" width="49.09765625" customWidth="1"/>
-    <col min="6" max="6" width="14.69921875" customWidth="1"/>
+    <col min="6" max="6" width="54.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
@@ -2277,7 +2378,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" ht="36" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2293,11 +2394,11 @@
       <c r="E14" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F14" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2313,8 +2414,8 @@
       <c r="E15" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>159</v>
+      <c r="F15" s="5" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
@@ -2333,8 +2434,8 @@
       <c r="E16" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>158</v>
+      <c r="F16" s="4" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
@@ -2354,7 +2455,7 @@
         <v>116</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
@@ -2374,7 +2475,7 @@
         <v>117</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
@@ -3005,9 +3106,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3182,27 +3286,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3227,9 +3319,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/文書管理フォルダ/外部設計用フォルダ/外部設計書類/ファイル構成一覧.xlsx
+++ b/文書管理フォルダ/外部設計用フォルダ/外部設計書類/ファイル構成一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-1\文書管理フォルダ\外部設計用フォルダ\外部設計書類\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B6321C-80B3-4407-ADFA-C13224C2215D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7550CA-4035-4D92-A7EB-B7B207D7BD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="264" windowWidth="17436" windowHeight="11292" activeTab="1" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="1104" yWindow="1344" windowWidth="15888" windowHeight="11712" activeTab="1" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2106,7 +2106,7 @@
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3106,12 +3106,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3286,15 +3283,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3319,18 +3328,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/文書管理フォルダ/外部設計用フォルダ/外部設計書類/ファイル構成一覧.xlsx
+++ b/文書管理フォルダ/外部設計用フォルダ/外部設計書類/ファイル構成一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-1\文書管理フォルダ\外部設計用フォルダ\外部設計書類\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7550CA-4035-4D92-A7EB-B7B207D7BD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59EDFA9-5B50-4B37-A938-ADEC650459DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1104" yWindow="1344" windowWidth="15888" windowHeight="11712" activeTab="1" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-900" yWindow="132" windowWidth="21624" windowHeight="11628" activeTab="1" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="166">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -1317,6 +1317,48 @@
     </rPh>
     <rPh sb="31" eb="32">
       <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進捗</t>
+    <rPh sb="0" eb="2">
+      <t>シンチョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新川:% , 高橋: % , 
+三田: %</t>
+    <rPh sb="0" eb="2">
+      <t>ニイカワ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タカハシ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ミタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">深田: 30% , 福田: 70% 
+中村:60 % </t>
+    <rPh sb="0" eb="2">
+      <t>フカダ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>フクダ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナカムラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">深田: 5% , 中村: 65% </t>
+    <rPh sb="9" eb="11">
+      <t>ナカムラ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1391,7 +1433,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1409,6 +1451,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2103,22 +2148,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E877898-1ADF-4B1F-AF3E-F0061165EDDE}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="18.8984375" customWidth="1"/>
-    <col min="3" max="3" width="28.19921875" customWidth="1"/>
-    <col min="4" max="4" width="37.69921875" customWidth="1"/>
+    <col min="3" max="3" width="26.296875" customWidth="1"/>
+    <col min="4" max="4" width="29.796875" customWidth="1"/>
     <col min="5" max="5" width="49.09765625" customWidth="1"/>
     <col min="6" max="6" width="54.3984375" customWidth="1"/>
+    <col min="7" max="7" width="19.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2137,8 +2183,11 @@
       <c r="F1" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G1" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2157,8 +2206,11 @@
       <c r="F2" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2177,8 +2229,11 @@
       <c r="F3" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G3" s="6">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2197,8 +2252,11 @@
       <c r="F4" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2217,8 +2275,11 @@
       <c r="F5" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2237,8 +2298,11 @@
       <c r="F6" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2257,8 +2321,11 @@
       <c r="F7" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2277,8 +2344,11 @@
       <c r="F8" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2297,8 +2367,11 @@
       <c r="F9" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2317,8 +2390,11 @@
       <c r="F10" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2337,8 +2413,11 @@
       <c r="F11" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2357,8 +2436,11 @@
       <c r="F12" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2377,30 +2459,22 @@
       <c r="F13" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="36" x14ac:dyDescent="0.45">
-      <c r="A14" s="1">
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" ht="36" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
         <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="1">
-        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>2</v>
@@ -2409,18 +2483,21 @@
         <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+        <v>161</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>2</v>
@@ -2429,18 +2506,21 @@
         <v>10</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+        <v>114</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>2</v>
@@ -2449,18 +2529,21 @@
         <v>10</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+        <v>115</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>2</v>
@@ -2469,58 +2552,53 @@
         <v>10</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+        <v>157</v>
+      </c>
+      <c r="G18" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+        <v>158</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>2</v>
@@ -2529,18 +2607,21 @@
         <v>13</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+        <v>156</v>
+      </c>
+      <c r="G21" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>2</v>
@@ -2549,18 +2630,21 @@
         <v>13</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+        <v>151</v>
+      </c>
+      <c r="G22" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>2</v>
@@ -2569,18 +2653,21 @@
         <v>13</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+        <v>155</v>
+      </c>
+      <c r="G23" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>2</v>
@@ -2589,78 +2676,76 @@
         <v>13</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G24" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25" s="1">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G25" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A26" s="1">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A25" s="1">
+      <c r="G26" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A28" s="1">
         <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A28" s="1">
-        <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>39</v>
@@ -2669,18 +2754,21 @@
         <v>72</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+        <v>151</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>39</v>
@@ -2689,18 +2777,21 @@
         <v>72</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+        <v>151</v>
+      </c>
+      <c r="G29" s="6">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>39</v>
@@ -2709,18 +2800,21 @@
         <v>72</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+        <v>152</v>
+      </c>
+      <c r="G30" s="6">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>39</v>
@@ -2729,18 +2823,21 @@
         <v>72</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+        <v>152</v>
+      </c>
+      <c r="G31" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>39</v>
@@ -2749,18 +2846,21 @@
         <v>72</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+        <v>153</v>
+      </c>
+      <c r="G32" s="6">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>39</v>
@@ -2769,18 +2869,21 @@
         <v>72</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+        <v>153</v>
+      </c>
+      <c r="G33" s="6">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>39</v>
@@ -2789,18 +2892,21 @@
         <v>72</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+        <v>154</v>
+      </c>
+      <c r="G34" s="6">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>39</v>
@@ -2809,18 +2915,21 @@
         <v>72</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+        <v>154</v>
+      </c>
+      <c r="G35" s="6">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>39</v>
@@ -2829,98 +2938,99 @@
         <v>72</v>
       </c>
       <c r="D36" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G36" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A37" s="1">
+        <v>33</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G37" s="6">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A38" s="1">
+        <v>34</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G38" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A39" s="1">
+        <v>35</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A39" s="1">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G39" s="6">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>41</v>
@@ -2929,18 +3039,21 @@
         <v>85</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+        <v>151</v>
+      </c>
+      <c r="G41" s="6">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>41</v>
@@ -2949,18 +3062,21 @@
         <v>85</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+        <v>151</v>
+      </c>
+      <c r="G42" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>41</v>
@@ -2969,18 +3085,21 @@
         <v>85</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+        <v>152</v>
+      </c>
+      <c r="G43" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>41</v>
@@ -2989,18 +3108,21 @@
         <v>85</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+        <v>152</v>
+      </c>
+      <c r="G44" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>41</v>
@@ -3009,18 +3131,21 @@
         <v>85</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+        <v>152</v>
+      </c>
+      <c r="G45" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>41</v>
@@ -3029,18 +3154,21 @@
         <v>85</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+        <v>153</v>
+      </c>
+      <c r="G46" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>41</v>
@@ -3049,53 +3177,161 @@
         <v>85</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+        <v>153</v>
+      </c>
+      <c r="G47" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+        <v>154</v>
+      </c>
+      <c r="G48" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>148</v>
+        <v>85</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>149</v>
+        <v>98</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>155</v>
+      </c>
+      <c r="G49" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>45</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G50" s="6">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>46</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G51" s="6">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>47</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>48</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G54" s="6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3106,9 +3342,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3283,27 +3522,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3328,9 +3555,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/文書管理フォルダ/外部設計用フォルダ/外部設計書類/ファイル構成一覧.xlsx
+++ b/文書管理フォルダ/外部設計用フォルダ/外部設計書類/ファイル構成一覧.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-1\文書管理フォルダ\外部設計用フォルダ\外部設計書類\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\c1 資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59EDFA9-5B50-4B37-A938-ADEC650459DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C230C34B-DD0D-4F69-AEBA-2679D8D61A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-900" yWindow="132" windowWidth="21624" windowHeight="11628" activeTab="1" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1328,7 +1328,21 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>新川:% , 高橋: % , 
+    <t xml:space="preserve">深田: 30% , 福田: 70% 
+中村:60 % </t>
+    <rPh sb="0" eb="2">
+      <t>フカダ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>フクダ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナカムラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新川:% , 高橋: 80% , 
 三田: %</t>
     <rPh sb="0" eb="2">
       <t>ニイカワ</t>
@@ -1336,28 +1350,14 @@
     <rPh sb="7" eb="9">
       <t>タカハシ</t>
     </rPh>
-    <rPh sb="16" eb="18">
+    <rPh sb="18" eb="20">
       <t>ミタ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">深田: 30% , 福田: 70% 
-中村:60 % </t>
-    <rPh sb="0" eb="2">
-      <t>フカダ</t>
-    </rPh>
+    <t xml:space="preserve">深田: 60% , 中村: 65% </t>
     <rPh sb="10" eb="12">
-      <t>フクダ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ナカムラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">深田: 5% , 中村: 65% </t>
-    <rPh sb="9" eb="11">
       <t>ナカムラ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1775,16 +1775,16 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="9.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.8984375" customWidth="1"/>
-    <col min="7" max="7" width="16.09765625" customWidth="1"/>
+    <col min="6" max="6" width="58.875" customWidth="1"/>
+    <col min="7" max="7" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
@@ -1825,7 +1825,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
         <f t="shared" ref="B4:B18" si="0">ROW()-2</f>
         <v>2</v>
@@ -1846,7 +1846,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1867,7 +1867,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1888,7 +1888,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1909,7 +1909,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1930,7 +1930,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1951,7 +1951,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1972,7 +1972,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1993,7 +1993,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2014,7 +2014,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2035,7 +2035,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2056,7 +2056,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2077,7 +2077,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2098,7 +2098,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2119,7 +2119,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2151,20 +2151,20 @@
   <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:G13"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="18.8984375" customWidth="1"/>
-    <col min="3" max="3" width="26.296875" customWidth="1"/>
-    <col min="4" max="4" width="29.796875" customWidth="1"/>
-    <col min="5" max="5" width="49.09765625" customWidth="1"/>
-    <col min="6" max="6" width="54.3984375" customWidth="1"/>
-    <col min="7" max="7" width="19.8984375" customWidth="1"/>
+    <col min="2" max="2" width="18.875" customWidth="1"/>
+    <col min="3" max="3" width="26.25" customWidth="1"/>
+    <col min="4" max="4" width="29.75" customWidth="1"/>
+    <col min="5" max="5" width="49.125" customWidth="1"/>
+    <col min="6" max="6" width="54.375" customWidth="1"/>
+    <col min="7" max="7" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2207,10 +2207,10 @@
         <v>151</v>
       </c>
       <c r="G2" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2276,10 +2276,10 @@
         <v>152</v>
       </c>
       <c r="G5" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2325,7 +2325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2414,10 +2414,10 @@
         <v>155</v>
       </c>
       <c r="G11" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2437,10 +2437,10 @@
         <v>156</v>
       </c>
       <c r="G12" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2460,19 +2460,21 @@
         <v>156</v>
       </c>
       <c r="G13" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" ht="36" x14ac:dyDescent="0.45">
+      <c r="G14" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2492,10 +2494,10 @@
         <v>161</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2515,10 +2517,10 @@
         <v>160</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2541,7 +2543,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2564,7 +2566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2587,7 +2589,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2596,7 +2598,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -2619,7 +2621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -2642,7 +2644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -2665,7 +2667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -2688,7 +2690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -2711,7 +2713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -2734,7 +2736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2743,7 +2745,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -2766,7 +2768,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -2789,7 +2791,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -2812,7 +2814,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -2835,7 +2837,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>28</v>
       </c>
@@ -2858,7 +2860,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>29</v>
       </c>
@@ -2881,7 +2883,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>30</v>
       </c>
@@ -2904,7 +2906,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>31</v>
       </c>
@@ -2927,7 +2929,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>32</v>
       </c>
@@ -2950,7 +2952,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>33</v>
       </c>
@@ -2973,7 +2975,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>34</v>
       </c>
@@ -2996,7 +2998,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>35</v>
       </c>
@@ -3019,7 +3021,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -3028,7 +3030,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>36</v>
       </c>
@@ -3051,7 +3053,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>37</v>
       </c>
@@ -3074,7 +3076,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>38</v>
       </c>
@@ -3097,7 +3099,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>39</v>
       </c>
@@ -3120,7 +3122,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>40</v>
       </c>
@@ -3143,7 +3145,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>41</v>
       </c>
@@ -3166,7 +3168,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>42</v>
       </c>
@@ -3189,7 +3191,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>43</v>
       </c>
@@ -3212,7 +3214,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>44</v>
       </c>
@@ -3235,7 +3237,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>45</v>
       </c>
@@ -3258,7 +3260,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>46</v>
       </c>
@@ -3281,7 +3283,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -3290,7 +3292,7 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>47</v>
       </c>
@@ -3311,7 +3313,7 @@
       </c>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>48</v>
       </c>
@@ -3342,12 +3344,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3522,15 +3521,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3555,18 +3566,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/文書管理フォルダ/外部設計用フォルダ/外部設計書類/ファイル構成一覧.xlsx
+++ b/文書管理フォルダ/外部設計用フォルダ/外部設計書類/ファイル構成一覧.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\c1 資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-1\文書管理フォルダ\外部設計用フォルダ\外部設計書類\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C230C34B-DD0D-4F69-AEBA-2679D8D61A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC37583F-10C4-4219-8DEC-8302530CD73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1185,16 +1185,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>高橋（おそらく無し）</t>
-    <rPh sb="0" eb="2">
-      <t>タカハシ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>福田（投稿）/中村（編集）</t>
     <rPh sb="0" eb="2">
       <t>フクダ</t>
@@ -1211,43 +1201,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>深田（並び替え：新着）/中村（返信表示,編集,削除,文字検索）</t>
-    <rPh sb="0" eb="2">
-      <t>フカダ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ナラ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シンチャク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ナカムラ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヘンシン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>深田（各並び替え,全一覧表示）/福田（投稿：検閲込み）
 /中村（投稿表示,リアクション,編集,削除,文字検索）</t>
     <rPh sb="0" eb="2">
@@ -1328,37 +1281,81 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">深田: 30% , 福田: 70% 
-中村:60 % </t>
+    <t>新川:0% , 高橋: 70% , 
+三田: 100%</t>
+    <rPh sb="0" eb="2">
+      <t>ニイカワ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タカハシ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ミタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">深田: 100% , 福田: 100% 
+中村:75 % </t>
     <rPh sb="0" eb="2">
       <t>フカダ</t>
     </rPh>
-    <rPh sb="10" eb="12">
+    <rPh sb="11" eb="13">
       <t>フクダ</t>
     </rPh>
-    <rPh sb="19" eb="21">
+    <rPh sb="21" eb="23">
       <t>ナカムラ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>新川:% , 高橋: 80% , 
-三田: %</t>
-    <rPh sb="0" eb="2">
-      <t>ニイカワ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
+    <t>中村（返信表示,編集,削除,文字検索）</t>
+    <rPh sb="0" eb="2">
+      <t>ナカムラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンシン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">中村: 75% </t>
+    <rPh sb="0" eb="2">
+      <t>ナカムラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高橋（何か追加（更新用のログ））</t>
+    <rPh sb="0" eb="2">
       <t>タカハシ</t>
     </rPh>
-    <rPh sb="18" eb="20">
-      <t>ミタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">深田: 60% , 中村: 65% </t>
-    <rPh sb="10" eb="12">
-      <t>ナカムラ</t>
+    <rPh sb="3" eb="4">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1390,7 +1387,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1400,6 +1397,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1433,7 +1436,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1453,6 +1456,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1775,16 +1784,16 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.875" customWidth="1"/>
-    <col min="7" max="7" width="16.125" customWidth="1"/>
+    <col min="6" max="6" width="58.8984375" customWidth="1"/>
+    <col min="7" max="7" width="16.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1804,7 +1813,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
@@ -1825,7 +1834,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" s="1">
         <f t="shared" ref="B4:B18" si="0">ROW()-2</f>
         <v>2</v>
@@ -1846,7 +1855,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1867,7 +1876,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1888,7 +1897,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1909,7 +1918,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1930,7 +1939,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1951,7 +1960,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1972,7 +1981,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1993,7 +2002,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2014,7 +2023,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2035,7 +2044,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2056,7 +2065,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2077,7 +2086,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2098,7 +2107,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2119,7 +2128,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2151,20 +2160,20 @@
   <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="18.875" customWidth="1"/>
-    <col min="3" max="3" width="26.25" customWidth="1"/>
-    <col min="4" max="4" width="29.75" customWidth="1"/>
-    <col min="5" max="5" width="49.125" customWidth="1"/>
-    <col min="6" max="6" width="54.375" customWidth="1"/>
-    <col min="7" max="7" width="19.875" customWidth="1"/>
+    <col min="2" max="2" width="18.8984375" customWidth="1"/>
+    <col min="3" max="3" width="26.19921875" customWidth="1"/>
+    <col min="4" max="4" width="29.69921875" customWidth="1"/>
+    <col min="5" max="5" width="49.09765625" customWidth="1"/>
+    <col min="6" max="6" width="54.3984375" customWidth="1"/>
+    <col min="7" max="7" width="19.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2184,10 +2193,10 @@
         <v>9</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2210,7 +2219,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2233,7 +2242,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2253,10 +2262,10 @@
         <v>152</v>
       </c>
       <c r="G4" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2276,10 +2285,10 @@
         <v>152</v>
       </c>
       <c r="G5" s="6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2299,10 +2308,10 @@
         <v>152</v>
       </c>
       <c r="G6" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2322,10 +2331,10 @@
         <v>153</v>
       </c>
       <c r="G7" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2345,10 +2354,10 @@
         <v>153</v>
       </c>
       <c r="G8" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2368,10 +2377,10 @@
         <v>154</v>
       </c>
       <c r="G9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2394,7 +2403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2414,10 +2423,10 @@
         <v>155</v>
       </c>
       <c r="G11" s="6">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2437,10 +2446,10 @@
         <v>156</v>
       </c>
       <c r="G12" s="6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2463,18 +2472,19 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="G14" s="7">
+        <f>AVERAGE(G2:G13)</f>
+        <v>0.61249999999999993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2491,13 +2501,13 @@
         <v>113</v>
       </c>
       <c r="F15" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2514,13 +2524,13 @@
         <v>114</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2537,13 +2547,13 @@
         <v>115</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2560,13 +2570,13 @@
         <v>116</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="G18" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2583,13 +2593,13 @@
         <v>117</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G19" s="6">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2598,7 +2608,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -2621,7 +2631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -2644,7 +2654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -2667,7 +2677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -2690,7 +2700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -2713,7 +2723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -2736,7 +2746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2745,7 +2755,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -2768,7 +2778,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -2791,7 +2801,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -2814,7 +2824,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -2837,7 +2847,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>28</v>
       </c>
@@ -2860,7 +2870,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>29</v>
       </c>
@@ -2883,7 +2893,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>30</v>
       </c>
@@ -2906,7 +2916,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>31</v>
       </c>
@@ -2929,7 +2939,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>32</v>
       </c>
@@ -2949,10 +2959,10 @@
         <v>155</v>
       </c>
       <c r="G36" s="6">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>33</v>
       </c>
@@ -2972,10 +2982,10 @@
         <v>156</v>
       </c>
       <c r="G37" s="6">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>34</v>
       </c>
@@ -2998,7 +3008,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>35</v>
       </c>
@@ -3017,20 +3027,23 @@
       <c r="F39" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G39" s="8">
         <v>0.7</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G40" s="7">
+        <f>AVERAGE(G28:G39)</f>
+        <v>0.79166666666666652</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>36</v>
       </c>
@@ -3053,7 +3066,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>37</v>
       </c>
@@ -3076,7 +3089,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>38</v>
       </c>
@@ -3099,7 +3112,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>39</v>
       </c>
@@ -3122,7 +3135,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>40</v>
       </c>
@@ -3145,7 +3158,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>41</v>
       </c>
@@ -3168,7 +3181,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>42</v>
       </c>
@@ -3188,10 +3201,10 @@
         <v>153</v>
       </c>
       <c r="G47" s="6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>43</v>
       </c>
@@ -3214,7 +3227,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>44</v>
       </c>
@@ -3234,10 +3247,10 @@
         <v>155</v>
       </c>
       <c r="G49" s="6">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>45</v>
       </c>
@@ -3260,7 +3273,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>46</v>
       </c>
@@ -3283,16 +3296,19 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G52" s="7">
+        <f>AVERAGE(G41:G51)</f>
+        <v>0.86363636363636376</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>47</v>
       </c>
@@ -3313,7 +3329,7 @@
       </c>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>48</v>
       </c>
@@ -3344,9 +3360,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3521,27 +3540,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3566,9 +3573,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/文書管理フォルダ/外部設計用フォルダ/外部設計書類/ファイル構成一覧.xlsx
+++ b/文書管理フォルダ/外部設計用フォルダ/外部設計書類/ファイル構成一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-1\文書管理フォルダ\外部設計用フォルダ\外部設計書類\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC37583F-10C4-4219-8DEC-8302530CD73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E8573A-2DD3-4C85-9C3C-89BE2BC321E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="170">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -1260,20 +1260,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>新川（パスワード）/三田（ログイン）/
-高橋（ドクロカウント,各並び替え,全一覧表示,更新）</t>
-    <rPh sb="0" eb="2">
-      <t>ニイカワ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ミタ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>カク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>進捗</t>
     <rPh sb="0" eb="2">
       <t>シンチョク</t>
@@ -1281,34 +1267,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>新川:0% , 高橋: 70% , 
-三田: 100%</t>
-    <rPh sb="0" eb="2">
-      <t>ニイカワ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>タカハシ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ミタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">深田: 100% , 福田: 100% 
-中村:75 % </t>
-    <rPh sb="0" eb="2">
-      <t>フカダ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>フクダ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ナカムラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>中村（返信表示,編集,削除,文字検索）</t>
     <rPh sb="0" eb="2">
       <t>ナカムラ</t>
@@ -1334,13 +1292,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">中村: 75% </t>
-    <rPh sb="0" eb="2">
-      <t>ナカムラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>高橋（何か追加（更新用のログ））</t>
     <rPh sb="0" eb="2">
       <t>タカハシ</t>
@@ -1356,6 +1307,82 @@
     </rPh>
     <rPh sb="10" eb="11">
       <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PasswordDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PasswordServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード変更画面用</t>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーテーブルのパスワード変更用の
+データアクセス処理用Daoファイル</t>
+    <rPh sb="14" eb="16">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新川（パスワード変更）</t>
+    <rPh sb="0" eb="2">
+      <t>ニイカワ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三田（ログイン）/
+高橋（ドクロカウント,各並び替え,全一覧表示,更新）</t>
+    <rPh sb="0" eb="2">
+      <t>ミタ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シンサンダ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Password.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ユーザーテーブルのパスワード列用のデータ操作モデル</t>
+    <rPh sb="15" eb="16">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ソウサ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1436,7 +1463,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1463,6 +1490,9 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2157,10 +2187,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E877898-1ADF-4B1F-AF3E-F0061165EDDE}">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2193,7 +2223,7 @@
         <v>9</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
@@ -2216,7 +2246,7 @@
         <v>151</v>
       </c>
       <c r="G2" s="6">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -2239,7 +2269,7 @@
         <v>151</v>
       </c>
       <c r="G3" s="6">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -2377,7 +2407,7 @@
         <v>154</v>
       </c>
       <c r="G9" s="6">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
@@ -2400,7 +2430,7 @@
         <v>154</v>
       </c>
       <c r="G10" s="6">
-        <v>0</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
@@ -2446,70 +2476,66 @@
         <v>156</v>
       </c>
       <c r="G12" s="6">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="G13" s="6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="7">
-        <f>AVERAGE(G2:G13)</f>
-        <v>0.61249999999999993</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="36" x14ac:dyDescent="0.45">
-      <c r="A15" s="1">
+      <c r="G14" s="6">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="7">
+        <f>AVERAGE(G2:G14)</f>
+        <v>0.75384615384615394</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="36" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
         <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="1">
-        <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>2</v>
@@ -2518,21 +2544,21 @@
         <v>10</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+        <v>167</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>2</v>
@@ -2541,21 +2567,21 @@
         <v>10</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>164</v>
+        <v>114</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G17" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>2</v>
@@ -2564,21 +2590,21 @@
         <v>10</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>165</v>
+        <v>115</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="G18" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>2</v>
@@ -2587,76 +2613,75 @@
         <v>10</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G19" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G21" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A22" s="1">
-        <v>19</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G22" s="6">
-        <v>1</v>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="7">
+        <f>AVERAGE(G16:G21)</f>
+        <v>0.7416666666666667</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>2</v>
@@ -2665,13 +2690,13 @@
         <v>13</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G23" s="6">
         <v>1</v>
@@ -2679,7 +2704,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>2</v>
@@ -2688,13 +2713,13 @@
         <v>13</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G24" s="6">
         <v>1</v>
@@ -2702,7 +2727,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>2</v>
@@ -2711,13 +2736,13 @@
         <v>13</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G25" s="6">
         <v>1</v>
@@ -2725,7 +2750,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>2</v>
@@ -2734,99 +2759,98 @@
         <v>13</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G26" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="A27" s="1">
+        <v>22</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G27" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A28" s="1">
-        <v>24</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>73</v>
+        <v>168</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>124</v>
+        <v>169</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G28" s="6">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G29" s="6">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A30" s="1">
-        <v>26</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G30" s="6">
-        <v>0.7</v>
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="7">
+        <f>AVERAGE(G23:G29)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>39</v>
@@ -2835,21 +2859,21 @@
         <v>72</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G31" s="6">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>39</v>
@@ -2858,21 +2882,21 @@
         <v>72</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G32" s="6">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>39</v>
@@ -2881,21 +2905,21 @@
         <v>72</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G33" s="6">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>39</v>
@@ -2904,21 +2928,21 @@
         <v>72</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G34" s="6">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>39</v>
@@ -2927,21 +2951,21 @@
         <v>72</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G35" s="6">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>39</v>
@@ -2950,13 +2974,13 @@
         <v>72</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G36" s="6">
         <v>0.8</v>
@@ -2964,7 +2988,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>39</v>
@@ -2973,21 +2997,21 @@
         <v>72</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G37" s="6">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>39</v>
@@ -2996,21 +3020,21 @@
         <v>72</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G38" s="6">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>39</v>
@@ -3019,102 +3043,102 @@
         <v>72</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G39" s="8">
-        <v>0.7</v>
+        <v>155</v>
+      </c>
+      <c r="G39" s="6">
+        <v>0.9</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="7">
-        <f>AVERAGE(G28:G39)</f>
-        <v>0.79166666666666652</v>
+      <c r="A40" s="1">
+        <v>33</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G40" s="6">
+        <v>0.9</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G41" s="6">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G42" s="6">
-        <v>0.9</v>
+        <v>152</v>
+      </c>
+      <c r="G42" s="8">
+        <v>0.7</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A43" s="1">
-        <v>38</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G43" s="6">
-        <v>0.9</v>
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="7">
+        <f>AVERAGE(G31:G42)</f>
+        <v>0.82500000000000007</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>41</v>
@@ -3123,21 +3147,21 @@
         <v>85</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G44" s="6">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>41</v>
@@ -3146,13 +3170,13 @@
         <v>85</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G45" s="6">
         <v>0.9</v>
@@ -3160,7 +3184,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>41</v>
@@ -3169,13 +3193,13 @@
         <v>85</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G46" s="6">
         <v>0.9</v>
@@ -3183,7 +3207,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>41</v>
@@ -3192,13 +3216,13 @@
         <v>85</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G47" s="6">
         <v>0.9</v>
@@ -3206,7 +3230,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>41</v>
@@ -3215,13 +3239,13 @@
         <v>85</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G48" s="6">
         <v>0.9</v>
@@ -3229,7 +3253,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>41</v>
@@ -3238,21 +3262,21 @@
         <v>85</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G49" s="6">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>41</v>
@@ -3261,21 +3285,21 @@
         <v>85</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G50" s="6">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>41</v>
@@ -3284,71 +3308,140 @@
         <v>85</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G51" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>44</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G52" s="6">
         <v>0.8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="7">
-        <f>AVERAGE(G41:G51)</f>
-        <v>0.86363636363636376</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G53" s="1"/>
+        <v>156</v>
+      </c>
+      <c r="G53" s="6">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
+        <v>46</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G54" s="6">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="7">
+        <f>AVERAGE(G44:G54)</f>
+        <v>0.86363636363636376</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>47</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
         <v>48</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F57" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G54" s="6">
+      <c r="G57" s="6">
         <v>1</v>
       </c>
     </row>
@@ -3360,12 +3453,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3540,15 +3630,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3573,18 +3675,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/文書管理フォルダ/外部設計用フォルダ/外部設計書類/ファイル構成一覧.xlsx
+++ b/文書管理フォルダ/外部設計用フォルダ/外部設計書類/ファイル構成一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-1\文書管理フォルダ\外部設計用フォルダ\外部設計書類\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E8573A-2DD3-4C85-9C3C-89BE2BC321E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2899D3B7-5892-4F3F-B573-65F54243F545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1814,16 +1814,16 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="9.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.8984375" customWidth="1"/>
-    <col min="7" max="7" width="16.09765625" customWidth="1"/>
+    <col min="6" max="6" width="58.875" customWidth="1"/>
+    <col min="7" max="7" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
@@ -1864,7 +1864,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
         <f t="shared" ref="B4:B18" si="0">ROW()-2</f>
         <v>2</v>
@@ -1885,7 +1885,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1906,7 +1906,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1927,7 +1927,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1948,7 +1948,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1969,7 +1969,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1990,7 +1990,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2011,7 +2011,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2032,7 +2032,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2053,7 +2053,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2074,7 +2074,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2095,7 +2095,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2116,7 +2116,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2137,7 +2137,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2158,7 +2158,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2189,21 +2189,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E877898-1ADF-4B1F-AF3E-F0061165EDDE}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="18.8984375" customWidth="1"/>
-    <col min="3" max="3" width="26.19921875" customWidth="1"/>
-    <col min="4" max="4" width="29.69921875" customWidth="1"/>
-    <col min="5" max="5" width="49.09765625" customWidth="1"/>
-    <col min="6" max="6" width="54.3984375" customWidth="1"/>
-    <col min="7" max="7" width="19.8984375" customWidth="1"/>
+    <col min="2" max="2" width="18.875" customWidth="1"/>
+    <col min="3" max="3" width="26.25" customWidth="1"/>
+    <col min="4" max="4" width="29.75" customWidth="1"/>
+    <col min="5" max="5" width="49.125" customWidth="1"/>
+    <col min="6" max="6" width="54.375" customWidth="1"/>
+    <col min="7" max="7" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2246,10 +2246,10 @@
         <v>151</v>
       </c>
       <c r="G2" s="6">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2269,10 +2269,10 @@
         <v>151</v>
       </c>
       <c r="G3" s="6">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2384,10 +2384,10 @@
         <v>153</v>
       </c>
       <c r="G8" s="6">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2407,10 +2407,10 @@
         <v>154</v>
       </c>
       <c r="G9" s="6">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2430,10 +2430,10 @@
         <v>154</v>
       </c>
       <c r="G10" s="6">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2476,10 +2476,10 @@
         <v>156</v>
       </c>
       <c r="G12" s="6">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
@@ -2495,10 +2495,10 @@
         <v>152</v>
       </c>
       <c r="G13" s="6">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2530,10 +2530,10 @@
       <c r="F15" s="1"/>
       <c r="G15" s="7">
         <f>AVERAGE(G2:G14)</f>
-        <v>0.75384615384615394</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="36" x14ac:dyDescent="0.45">
+        <v>0.80769230769230771</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -2553,10 +2553,10 @@
         <v>167</v>
       </c>
       <c r="G16" s="9">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="36" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
@@ -2641,10 +2641,10 @@
         <v>166</v>
       </c>
       <c r="G20" s="6">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2676,10 +2676,10 @@
       <c r="F22" s="1"/>
       <c r="G22" s="7">
         <f>AVERAGE(G16:G21)</f>
-        <v>0.7416666666666667</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0.76666666666666661</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>18</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>19</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>20</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>21</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>22</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
@@ -2813,7 +2813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>23</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2848,7 +2848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>24</v>
       </c>
@@ -2868,10 +2868,10 @@
         <v>151</v>
       </c>
       <c r="G31" s="6">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>25</v>
       </c>
@@ -2891,10 +2891,10 @@
         <v>151</v>
       </c>
       <c r="G32" s="6">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>26</v>
       </c>
@@ -2917,7 +2917,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>27</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>28</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>29</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>30</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>31</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>32</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>33</v>
       </c>
@@ -3075,10 +3075,10 @@
         <v>156</v>
       </c>
       <c r="G40" s="6">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>34</v>
       </c>
@@ -3098,10 +3098,10 @@
         <v>156</v>
       </c>
       <c r="G41" s="6">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>35</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -3133,10 +3133,10 @@
       <c r="F43" s="1"/>
       <c r="G43" s="7">
         <f>AVERAGE(G31:G42)</f>
-        <v>0.82500000000000007</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0.82916666666666672</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>36</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>37</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>38</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>39</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>40</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>41</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>42</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>43</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>44</v>
       </c>
@@ -3340,10 +3340,10 @@
         <v>155</v>
       </c>
       <c r="G52" s="6">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>45</v>
       </c>
@@ -3366,7 +3366,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>46</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -3398,10 +3398,10 @@
       <c r="F55" s="1"/>
       <c r="G55" s="7">
         <f>AVERAGE(G44:G54)</f>
-        <v>0.86363636363636376</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0.87272727272727302</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>47</v>
       </c>
@@ -3422,7 +3422,7 @@
       </c>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>48</v>
       </c>
@@ -3453,9 +3453,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3630,27 +3633,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3675,9 +3666,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/文書管理フォルダ/外部設計用フォルダ/外部設計書類/ファイル構成一覧.xlsx
+++ b/文書管理フォルダ/外部設計用フォルダ/外部設計書類/ファイル構成一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-1\文書管理フォルダ\外部設計用フォルダ\外部設計書類\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2899D3B7-5892-4F3F-B573-65F54243F545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CE9D64-CB5C-448C-B723-E665F60AFF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -1463,7 +1463,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1493,6 +1493,9 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2187,10 +2190,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E877898-1ADF-4B1F-AF3E-F0061165EDDE}">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+    <sheetView tabSelected="1" topLeftCell="B49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3445,6 +3448,12 @@
         <v>1</v>
       </c>
     </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G59" s="10">
+        <f>AVERAGE(G15,G22,G30,G43,G55)</f>
+        <v>0.85525058275058274</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3453,12 +3462,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3633,15 +3639,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3666,18 +3684,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/文書管理フォルダ/外部設計用フォルダ/外部設計書類/ファイル構成一覧.xlsx
+++ b/文書管理フォルダ/外部設計用フォルダ/外部設計書類/ファイル構成一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-1\文書管理フォルダ\外部設計用フォルダ\外部設計書類\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CE9D64-CB5C-448C-B723-E665F60AFF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2A133A-B1A1-48B7-815A-1FE6DFB3CD7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -1463,7 +1463,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1495,6 +1495,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2190,10 +2193,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E877898-1ADF-4B1F-AF3E-F0061165EDDE}">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView tabSelected="1" topLeftCell="D52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2206,7 +2209,7 @@
     <col min="7" max="7" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2229,7 +2232,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2249,10 +2252,10 @@
         <v>151</v>
       </c>
       <c r="G2" s="6">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2272,10 +2275,10 @@
         <v>151</v>
       </c>
       <c r="G3" s="6">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2298,7 +2301,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2321,7 +2324,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2344,7 +2347,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2367,7 +2370,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2387,10 +2390,10 @@
         <v>153</v>
       </c>
       <c r="G8" s="6">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2413,7 +2416,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2436,7 +2439,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2456,10 +2459,10 @@
         <v>155</v>
       </c>
       <c r="G11" s="6">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2482,7 +2485,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
@@ -2498,10 +2501,10 @@
         <v>152</v>
       </c>
       <c r="G13" s="6">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2521,10 +2524,10 @@
         <v>156</v>
       </c>
       <c r="G14" s="6">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2533,10 +2536,10 @@
       <c r="F15" s="1"/>
       <c r="G15" s="7">
         <f>AVERAGE(G2:G14)</f>
-        <v>0.80769230769230771</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
+        <v>0.86153846153846136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -2556,8 +2559,9 @@
         <v>167</v>
       </c>
       <c r="G16" s="9">
-        <v>0.8</v>
-      </c>
+        <v>0.9</v>
+      </c>
+      <c r="H16" s="11"/>
     </row>
     <row r="17" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
@@ -2644,7 +2648,7 @@
         <v>166</v>
       </c>
       <c r="G20" s="6">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
@@ -2679,7 +2683,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="7">
         <f>AVERAGE(G16:G21)</f>
-        <v>0.76666666666666661</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
@@ -2871,7 +2875,7 @@
         <v>151</v>
       </c>
       <c r="G31" s="6">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
@@ -2894,7 +2898,7 @@
         <v>151</v>
       </c>
       <c r="G32" s="6">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
@@ -2917,7 +2921,7 @@
         <v>152</v>
       </c>
       <c r="G33" s="6">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
@@ -2963,7 +2967,7 @@
         <v>153</v>
       </c>
       <c r="G35" s="6">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
@@ -3009,7 +3013,7 @@
         <v>154</v>
       </c>
       <c r="G37" s="6">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
@@ -3032,7 +3036,7 @@
         <v>154</v>
       </c>
       <c r="G38" s="6">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
@@ -3078,7 +3082,7 @@
         <v>156</v>
       </c>
       <c r="G40" s="6">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.4">
@@ -3101,7 +3105,7 @@
         <v>156</v>
       </c>
       <c r="G41" s="6">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.4">
@@ -3124,7 +3128,7 @@
         <v>152</v>
       </c>
       <c r="G42" s="8">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
@@ -3136,7 +3140,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="7">
         <f>AVERAGE(G31:G42)</f>
-        <v>0.82916666666666672</v>
+        <v>0.8833333333333333</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.4">
@@ -3366,7 +3370,7 @@
         <v>156</v>
       </c>
       <c r="G53" s="6">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.4">
@@ -3389,7 +3393,7 @@
         <v>156</v>
       </c>
       <c r="G54" s="6">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.4">
@@ -3401,7 +3405,7 @@
       <c r="F55" s="1"/>
       <c r="G55" s="7">
         <f>AVERAGE(G44:G54)</f>
-        <v>0.87272727272727302</v>
+        <v>0.89090909090909109</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.4">
@@ -3451,7 +3455,7 @@
     <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G59" s="10">
         <f>AVERAGE(G15,G22,G30,G43,G55)</f>
-        <v>0.85525058275058274</v>
+        <v>0.88548951048951052</v>
       </c>
     </row>
   </sheetData>
@@ -3462,9 +3466,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3639,27 +3646,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3684,9 +3679,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/文書管理フォルダ/外部設計用フォルダ/外部設計書類/ファイル構成一覧.xlsx
+++ b/文書管理フォルダ/外部設計用フォルダ/外部設計書類/ファイル構成一覧.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-1\文書管理フォルダ\外部設計用フォルダ\外部設計書類\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2A133A-B1A1-48B7-815A-1FE6DFB3CD7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C959B1-1ADA-45AC-9777-C171C7EE5D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="167">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -434,10 +434,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ManagerDao.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SearchDao.java</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -782,22 +778,6 @@
       <t>ショリ</t>
     </rPh>
     <rPh sb="17" eb="18">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>管理者テーブル用のデータアクセス処理用Daoファイル</t>
-    <rPh sb="0" eb="3">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
       <t>ヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1288,25 +1268,6 @@
     </rPh>
     <rPh sb="16" eb="18">
       <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>高橋（何か追加（更新用のログ））</t>
-    <rPh sb="0" eb="2">
-      <t>タカハシ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2193,10 +2154,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E877898-1ADF-4B1F-AF3E-F0061165EDDE}">
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView tabSelected="1" topLeftCell="D49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2229,7 +2190,7 @@
         <v>9</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.4">
@@ -2246,10 +2207,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G2" s="6">
         <v>0.9</v>
@@ -2269,10 +2230,10 @@
         <v>52</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G3" s="6">
         <v>0.9</v>
@@ -2292,13 +2253,13 @@
         <v>53</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G4" s="6">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -2315,13 +2276,13 @@
         <v>54</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G5" s="6">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
@@ -2338,13 +2299,13 @@
         <v>55</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G6" s="6">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
@@ -2361,10 +2322,10 @@
         <v>56</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G7" s="6">
         <v>0.9</v>
@@ -2384,13 +2345,13 @@
         <v>57</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G8" s="6">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
@@ -2407,13 +2368,13 @@
         <v>58</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G9" s="6">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
@@ -2430,13 +2391,13 @@
         <v>59</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G10" s="6">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
@@ -2453,10 +2414,10 @@
         <v>60</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G11" s="6">
         <v>0.9</v>
@@ -2476,13 +2437,13 @@
         <v>61</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G12" s="6">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
@@ -2492,16 +2453,16 @@
         <v>5</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G13" s="6">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
@@ -2518,13 +2479,13 @@
         <v>62</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G14" s="6">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
@@ -2536,7 +2497,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="7">
         <f>AVERAGE(G2:G14)</f>
-        <v>0.86153846153846136</v>
+        <v>0.9076923076923078</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
@@ -2553,13 +2514,13 @@
         <v>51</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G16" s="9">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H16" s="11"/>
     </row>
@@ -2577,10 +2538,10 @@
         <v>63</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G17" s="9">
         <v>1</v>
@@ -2600,95 +2561,95 @@
         <v>64</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G18" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="1">
-        <v>16</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>2</v>
-      </c>
+    <row r="19" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>116</v>
+        <v>159</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G19" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20" s="1">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C20" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>165</v>
+        <v>65</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="G20" s="6">
-        <v>0.85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="1">
-        <v>17</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="7">
+        <f>AVERAGE(G16:G20)</f>
+        <v>0.93999999999999984</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A22" s="1">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="C22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G21" s="6">
+      <c r="E22" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G22" s="6">
         <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="7">
-        <f>AVERAGE(G16:G21)</f>
-        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>2</v>
@@ -2697,13 +2658,13 @@
         <v>13</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="G23" s="6">
         <v>1</v>
@@ -2711,7 +2672,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>2</v>
@@ -2720,13 +2681,13 @@
         <v>13</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G24" s="6">
         <v>1</v>
@@ -2734,7 +2695,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>2</v>
@@ -2746,10 +2707,10 @@
         <v>68</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G25" s="6">
         <v>1</v>
@@ -2757,7 +2718,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>2</v>
@@ -2766,113 +2727,113 @@
         <v>13</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G26" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A27" s="1">
-        <v>22</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>71</v>
+        <v>165</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>122</v>
+        <v>166</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G27" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
+      <c r="A28" s="1">
+        <v>23</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C28" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>168</v>
+        <v>69</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>169</v>
+        <v>121</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G28" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A29" s="1">
-        <v>23</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G29" s="6">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="7">
+        <f>AVERAGE(G22:G28)</f>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="7">
-        <f>AVERAGE(G23:G29)</f>
-        <v>1</v>
+      <c r="A30" s="1">
+        <v>24</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G30" s="6">
+        <v>0.9</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>73</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G31" s="6">
         <v>0.9</v>
@@ -2880,22 +2841,22 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>74</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G32" s="6">
         <v>0.9</v>
@@ -2903,22 +2864,22 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>75</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G33" s="6">
         <v>0.9</v>
@@ -2926,22 +2887,22 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>76</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G34" s="6">
         <v>0.9</v>
@@ -2949,45 +2910,45 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G35" s="6">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>78</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G36" s="6">
         <v>0.8</v>
@@ -2995,22 +2956,22 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>79</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G37" s="6">
         <v>0.8</v>
@@ -3018,172 +2979,172 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G38" s="6">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G39" s="6">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>82</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G40" s="6">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E41" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G41" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="7">
+        <f>AVERAGE(G30:G41)</f>
+        <v>0.89583333333333337</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A43" s="1">
+        <v>36</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G41" s="6">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A42" s="1">
-        <v>35</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G42" s="8">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="7">
-        <f>AVERAGE(G31:G42)</f>
-        <v>0.8833333333333333</v>
+      <c r="F43" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G43" s="6">
+        <v>0.8</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>90</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G44" s="6">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>91</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G45" s="6">
         <v>0.9</v>
@@ -3191,22 +3152,22 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>92</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G46" s="6">
         <v>0.9</v>
@@ -3214,22 +3175,22 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G47" s="6">
         <v>0.9</v>
@@ -3237,22 +3198,22 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>94</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G48" s="6">
         <v>0.9</v>
@@ -3260,22 +3221,22 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>95</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G49" s="6">
         <v>0.9</v>
@@ -3283,22 +3244,22 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>96</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G50" s="6">
         <v>0.9</v>
@@ -3306,45 +3267,45 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>97</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G51" s="6">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>98</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G52" s="6">
         <v>0.9</v>
@@ -3352,110 +3313,87 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>99</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G53" s="6">
         <v>0.9</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A54" s="1">
-        <v>46</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C54" s="1" t="s">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="7">
+        <f>AVERAGE(G43:G53)</f>
+        <v>0.89545454545454561</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A55" s="1">
+        <v>47</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G54" s="6">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="7">
-        <f>AVERAGE(G44:G54)</f>
-        <v>0.89090909090909109</v>
-      </c>
+      <c r="E55" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G56" s="1"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A57" s="1">
-        <v>48</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G57" s="6">
+        <v>153</v>
+      </c>
+      <c r="G56" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="G59" s="10">
-        <f>AVERAGE(G15,G22,G30,G43,G55)</f>
-        <v>0.88548951048951052</v>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G58" s="10">
+        <f>AVERAGE(G15,G21,G29,G42,G54)</f>
+        <v>0.92779603729603743</v>
       </c>
     </row>
   </sheetData>
@@ -3466,12 +3404,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3646,15 +3581,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3679,18 +3626,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/文書管理フォルダ/外部設計用フォルダ/外部設計書類/ファイル構成一覧.xlsx
+++ b/文書管理フォルダ/外部設計用フォルダ/外部設計書類/ファイル構成一覧.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-1\文書管理フォルダ\外部設計用フォルダ\外部設計書類\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C959B1-1ADA-45AC-9777-C171C7EE5D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C5E1DC-C4C0-4EA3-97ED-650255D3C4EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="2232" yWindow="4296" windowWidth="20568" windowHeight="10656" activeTab="1" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="171">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -1345,6 +1345,31 @@
     <rPh sb="21" eb="23">
       <t>ソウサ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本ファイルへの移行</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル結合</t>
+    <rPh sb="4" eb="6">
+      <t>ケツゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>△</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1395,7 +1420,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1417,6 +1442,23 @@
         <color indexed="64"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -1458,7 +1500,7 @@
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1781,16 +1823,16 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.875" customWidth="1"/>
-    <col min="7" max="7" width="16.125" customWidth="1"/>
+    <col min="6" max="6" width="58.8984375" customWidth="1"/>
+    <col min="7" max="7" width="16.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1810,7 +1852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
@@ -1831,7 +1873,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" s="1">
         <f t="shared" ref="B4:B18" si="0">ROW()-2</f>
         <v>2</v>
@@ -1852,7 +1894,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1873,7 +1915,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1894,7 +1936,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1915,7 +1957,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1936,7 +1978,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1957,7 +1999,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1978,7 +2020,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1999,7 +2041,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2020,7 +2062,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2041,7 +2083,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2062,7 +2104,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2083,7 +2125,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2104,7 +2146,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2125,7 +2167,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2154,23 +2196,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E877898-1ADF-4B1F-AF3E-F0061165EDDE}">
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView tabSelected="1" topLeftCell="D34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="18.875" customWidth="1"/>
-    <col min="3" max="3" width="26.25" customWidth="1"/>
-    <col min="4" max="4" width="29.75" customWidth="1"/>
-    <col min="5" max="5" width="49.125" customWidth="1"/>
-    <col min="6" max="6" width="54.375" customWidth="1"/>
-    <col min="7" max="7" width="19.875" customWidth="1"/>
+    <col min="2" max="2" width="18.8984375" customWidth="1"/>
+    <col min="3" max="3" width="26.19921875" customWidth="1"/>
+    <col min="4" max="4" width="29.69921875" customWidth="1"/>
+    <col min="5" max="5" width="49.09765625" customWidth="1"/>
+    <col min="6" max="6" width="54.3984375" customWidth="1"/>
+    <col min="7" max="7" width="19.8984375" customWidth="1"/>
+    <col min="8" max="8" width="12.8984375" customWidth="1"/>
+    <col min="9" max="9" width="17.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2192,8 +2236,14 @@
       <c r="G1" s="3" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H1" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2215,8 +2265,10 @@
       <c r="G2" s="6">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2238,8 +2290,10 @@
       <c r="G3" s="6">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2261,8 +2315,10 @@
       <c r="G4" s="6">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2284,8 +2340,10 @@
       <c r="G5" s="6">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2307,8 +2365,10 @@
       <c r="G6" s="6">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2330,8 +2390,10 @@
       <c r="G7" s="6">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2353,8 +2415,10 @@
       <c r="G8" s="6">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2376,8 +2440,10 @@
       <c r="G9" s="6">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2399,8 +2465,10 @@
       <c r="G10" s="6">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2422,8 +2490,14 @@
       <c r="G11" s="6">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H11" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2445,8 +2519,14 @@
       <c r="G12" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H12" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
@@ -2464,8 +2544,10 @@
       <c r="G13" s="6">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2487,8 +2569,14 @@
       <c r="G14" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H14" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2499,8 +2587,16 @@
         <f>AVERAGE(G2:G14)</f>
         <v>0.9076923076923078</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="H15" s="7" t="e">
+        <f t="shared" ref="H15:I15" si="0">AVERAGE(H2:H14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I15" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="36" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -2522,9 +2618,10 @@
       <c r="G16" s="9">
         <v>0.8</v>
       </c>
-      <c r="H16" s="11"/>
-    </row>
-    <row r="17" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -2546,8 +2643,14 @@
       <c r="G17" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H17" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -2569,8 +2672,14 @@
       <c r="G18" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="H18" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="36" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
@@ -2588,8 +2697,10 @@
       <c r="G19" s="6">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -2608,11 +2719,11 @@
       <c r="F20" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G20" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2621,10 +2732,18 @@
       <c r="F21" s="1"/>
       <c r="G21" s="7">
         <f>AVERAGE(G16:G20)</f>
-        <v>0.93999999999999984</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0.92499999999999993</v>
+      </c>
+      <c r="H21" s="7" t="e">
+        <f t="shared" ref="H21:I21" si="1">AVERAGE(H16:H20)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I21" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -2647,7 +2766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -2670,7 +2789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -2693,7 +2812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -2716,7 +2835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -2739,7 +2858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
@@ -2758,7 +2877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>23</v>
       </c>
@@ -2781,7 +2900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2793,7 +2912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>24</v>
       </c>
@@ -2816,7 +2935,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>25</v>
       </c>
@@ -2839,7 +2958,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>26</v>
       </c>
@@ -2862,7 +2981,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>27</v>
       </c>
@@ -2885,7 +3004,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>28</v>
       </c>
@@ -2908,7 +3027,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>29</v>
       </c>
@@ -2931,7 +3050,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>30</v>
       </c>
@@ -2954,7 +3073,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>31</v>
       </c>
@@ -2977,7 +3096,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>32</v>
       </c>
@@ -3000,7 +3119,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>33</v>
       </c>
@@ -3023,7 +3142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>34</v>
       </c>
@@ -3046,7 +3165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>35</v>
       </c>
@@ -3069,7 +3188,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -3081,7 +3200,7 @@
         <v>0.89583333333333337</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>36</v>
       </c>
@@ -3104,7 +3223,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>37</v>
       </c>
@@ -3127,7 +3246,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>38</v>
       </c>
@@ -3150,7 +3269,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>39</v>
       </c>
@@ -3173,7 +3292,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>40</v>
       </c>
@@ -3196,7 +3315,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>41</v>
       </c>
@@ -3219,7 +3338,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>42</v>
       </c>
@@ -3242,7 +3361,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>43</v>
       </c>
@@ -3265,7 +3384,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>44</v>
       </c>
@@ -3288,7 +3407,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>45</v>
       </c>
@@ -3311,7 +3430,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>46</v>
       </c>
@@ -3334,7 +3453,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -3346,7 +3465,7 @@
         <v>0.89545454545454561</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>47</v>
       </c>
@@ -3367,7 +3486,7 @@
       </c>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>48</v>
       </c>
@@ -3390,10 +3509,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G58" s="10">
         <f>AVERAGE(G15,G21,G29,G42,G54)</f>
-        <v>0.92779603729603743</v>
+        <v>0.92479603729603743</v>
       </c>
     </row>
   </sheetData>
@@ -3404,9 +3523,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3581,27 +3703,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3626,9 +3736,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/文書管理フォルダ/外部設計用フォルダ/外部設計書類/ファイル構成一覧.xlsx
+++ b/文書管理フォルダ/外部設計用フォルダ/外部設計書類/ファイル構成一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-1\文書管理フォルダ\外部設計用フォルダ\外部設計書類\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C5E1DC-C4C0-4EA3-97ED-650255D3C4EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5D5B6F-6DEE-4658-B263-8CE02686B55C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="4296" windowWidth="20568" windowHeight="10656" activeTab="1" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="165">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -550,10 +550,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Common.css</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Login.css</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -960,19 +956,6 @@
     <t xml:space="preserve"> パスワード変更jsp</t>
     <rPh sb="6" eb="8">
       <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>共通項目(ヘッダー、フッター)用css</t>
-    <rPh sb="0" eb="2">
-      <t>キョウツウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1345,31 +1328,6 @@
     <rPh sb="21" eb="23">
       <t>ソウサ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>本ファイルへの移行</t>
-    <rPh sb="0" eb="1">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>イコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ファイル結合</t>
-    <rPh sb="4" eb="6">
-      <t>ケツゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>〇</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>△</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1466,7 +1424,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1489,9 +1447,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1823,16 +1778,16 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="9.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.8984375" customWidth="1"/>
-    <col min="7" max="7" width="16.09765625" customWidth="1"/>
+    <col min="6" max="6" width="58.875" customWidth="1"/>
+    <col min="7" max="7" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1852,7 +1807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
@@ -1873,7 +1828,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
         <f t="shared" ref="B4:B18" si="0">ROW()-2</f>
         <v>2</v>
@@ -1894,7 +1849,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1915,7 +1870,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1936,7 +1891,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1957,7 +1912,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1978,7 +1933,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1999,7 +1954,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2020,7 +1975,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2041,7 +1996,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2062,7 +2017,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2083,7 +2038,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2104,7 +2059,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2125,7 +2080,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2146,7 +2101,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2167,7 +2122,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2196,25 +2151,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E877898-1ADF-4B1F-AF3E-F0061165EDDE}">
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I1" activeCellId="1" sqref="H1:H1048576 I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="18.8984375" customWidth="1"/>
-    <col min="3" max="3" width="26.19921875" customWidth="1"/>
-    <col min="4" max="4" width="29.69921875" customWidth="1"/>
-    <col min="5" max="5" width="49.09765625" customWidth="1"/>
-    <col min="6" max="6" width="54.3984375" customWidth="1"/>
-    <col min="7" max="7" width="19.8984375" customWidth="1"/>
-    <col min="8" max="8" width="12.8984375" customWidth="1"/>
-    <col min="9" max="9" width="17.19921875" customWidth="1"/>
+    <col min="2" max="2" width="18.875" customWidth="1"/>
+    <col min="3" max="3" width="26.25" customWidth="1"/>
+    <col min="4" max="4" width="29.75" customWidth="1"/>
+    <col min="5" max="5" width="49.125" customWidth="1"/>
+    <col min="6" max="6" width="54.375" customWidth="1"/>
+    <col min="7" max="7" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2234,16 +2187,10 @@
         <v>9</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2257,18 +2204,16 @@
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G2" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2282,18 +2227,16 @@
         <v>52</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G3" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2307,18 +2250,16 @@
         <v>53</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G4" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2332,18 +2273,16 @@
         <v>54</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G5" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2357,18 +2296,16 @@
         <v>55</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G6" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2382,18 +2319,16 @@
         <v>56</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G7" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2407,18 +2342,16 @@
         <v>57</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G8" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2432,18 +2365,16 @@
         <v>58</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G9" s="6">
-        <v>0.85</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2457,18 +2388,16 @@
         <v>59</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G10" s="6">
-        <v>0.85</v>
-      </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2482,22 +2411,16 @@
         <v>60</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G11" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2511,43 +2434,35 @@
         <v>61</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G12" s="6">
         <v>1</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G13" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2561,42 +2476,31 @@
         <v>62</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G14" s="6">
         <v>1</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1">
+        <f>COUNTA(C2:C14)</f>
+        <v>13</v>
+      </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="7">
         <f>AVERAGE(G2:G14)</f>
-        <v>0.9076923076923078</v>
-      </c>
-      <c r="H15" s="7" t="e">
-        <f t="shared" ref="H15:I15" si="0">AVERAGE(H2:H14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I15" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="36" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -2610,18 +2514,16 @@
         <v>51</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="G16" s="9">
-        <v>0.8</v>
-      </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-    </row>
-    <row r="17" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+        <v>162</v>
+      </c>
+      <c r="G16" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -2635,22 +2537,16 @@
         <v>63</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="G17" s="9">
-        <v>1</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+        <v>154</v>
+      </c>
+      <c r="G17" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -2664,43 +2560,35 @@
         <v>64</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="G18" s="6">
-        <v>1</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="36" x14ac:dyDescent="0.45">
+        <v>156</v>
+      </c>
+      <c r="G18" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="G19" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+        <v>161</v>
+      </c>
+      <c r="G19" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -2714,36 +2602,29 @@
         <v>65</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+        <v>153</v>
+      </c>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="C21" s="1">
+        <f>COUNTA(C16:C20)</f>
+        <v>5</v>
+      </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="7">
         <f>AVERAGE(G16:G20)</f>
-        <v>0.92499999999999993</v>
-      </c>
-      <c r="H21" s="7" t="e">
-        <f t="shared" ref="H21:I21" si="1">AVERAGE(H16:H20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I21" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -2757,16 +2638,16 @@
         <v>66</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G22" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -2780,16 +2661,16 @@
         <v>15</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G23" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -2803,16 +2684,16 @@
         <v>67</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G24" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -2826,16 +2707,16 @@
         <v>68</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G25" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -2849,35 +2730,35 @@
         <v>70</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G26" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G27" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>23</v>
       </c>
@@ -2891,19 +2772,22 @@
         <v>69</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G28" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+      <c r="C29" s="1">
+        <f>COUNTA(C22:C28)</f>
+        <v>7</v>
+      </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -2912,7 +2796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>24</v>
       </c>
@@ -2926,16 +2810,16 @@
         <v>72</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G30" s="6">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>25</v>
       </c>
@@ -2949,16 +2833,16 @@
         <v>73</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G31" s="6">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>26</v>
       </c>
@@ -2972,16 +2856,16 @@
         <v>74</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G32" s="6">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>27</v>
       </c>
@@ -2995,16 +2879,16 @@
         <v>75</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G33" s="6">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>28</v>
       </c>
@@ -3018,16 +2902,16 @@
         <v>76</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G34" s="6">
         <v>0.9</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>29</v>
       </c>
@@ -3041,16 +2925,16 @@
         <v>77</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G35" s="6">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>30</v>
       </c>
@@ -3064,16 +2948,16 @@
         <v>78</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G36" s="6">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>31</v>
       </c>
@@ -3087,16 +2971,16 @@
         <v>79</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G37" s="6">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>32</v>
       </c>
@@ -3110,16 +2994,16 @@
         <v>80</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G38" s="6">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>33</v>
       </c>
@@ -3133,16 +3017,16 @@
         <v>81</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G39" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>34</v>
       </c>
@@ -3156,16 +3040,16 @@
         <v>82</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G40" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>35</v>
       </c>
@@ -3179,30 +3063,33 @@
         <v>83</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G41" s="8">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+        <v>148</v>
+      </c>
+      <c r="G41" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
+      <c r="C42" s="1">
+        <f>COUNTA(C30:C41)</f>
+        <v>12</v>
+      </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="7">
         <f>AVERAGE(G30:G41)</f>
-        <v>0.89583333333333337</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0.9916666666666667</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>41</v>
@@ -3214,18 +3101,18 @@
         <v>89</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G43" s="6">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>41</v>
@@ -3237,18 +3124,18 @@
         <v>90</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G44" s="6">
         <v>0.9</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>41</v>
@@ -3260,18 +3147,18 @@
         <v>91</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G45" s="6">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>41</v>
@@ -3283,18 +3170,18 @@
         <v>92</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G46" s="6">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>41</v>
@@ -3306,18 +3193,18 @@
         <v>93</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G47" s="6">
         <v>0.9</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>41</v>
@@ -3329,18 +3216,18 @@
         <v>94</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G48" s="6">
         <v>0.9</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>41</v>
@@ -3352,18 +3239,18 @@
         <v>95</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G49" s="6">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>41</v>
@@ -3375,18 +3262,18 @@
         <v>96</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G50" s="6">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>41</v>
@@ -3398,18 +3285,18 @@
         <v>97</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G51" s="6">
         <v>0.95</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>41</v>
@@ -3421,98 +3308,84 @@
         <v>98</v>
       </c>
       <c r="E52" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G52" s="6">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1">
+        <f>COUNTA(C43:C52)</f>
+        <v>10</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="7">
+        <f>AVERAGE(G43:G52)</f>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A54" s="1">
+        <v>47</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A55" s="1">
+        <v>48</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G52" s="6">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A53" s="1">
-        <v>46</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E53" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G53" s="6">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="7">
-        <f>AVERAGE(G43:G53)</f>
-        <v>0.89545454545454561</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A55" s="1">
+      <c r="D55" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G55" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C56">
+        <f>SUM(C15,C21,C29,C42,C53)</f>
         <v>47</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G55" s="1"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A56" s="1">
-        <v>48</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G56" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G58" s="10">
-        <f>AVERAGE(G15,G21,G29,G42,G54)</f>
-        <v>0.92479603729603743</v>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G57" s="9">
+        <f>AVERAGE(G15,G21,G29,G42,G53)</f>
+        <v>0.98833333333333329</v>
       </c>
     </row>
   </sheetData>
@@ -3523,12 +3396,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3703,15 +3573,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3736,18 +3618,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>